--- a/Final/Results Tracker.xlsx
+++ b/Final/Results Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\DataClass\Final-Project\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB755D7-B116-4133-AA6F-559986F159B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD2D2D2-828A-4938-82F2-5A866DF69AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{6E3B00A5-36E2-41A8-9CB6-9F2B4B5BC870}"/>
+    <workbookView xWindow="14700" yWindow="-18270" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="1" xr2:uid="{6E3B00A5-36E2-41A8-9CB6-9F2B4B5BC870}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="66">
   <si>
     <t>C</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>8/6/23</t>
+  </si>
+  <si>
+    <t>8/7/23</t>
   </si>
 </sst>
 </file>
@@ -715,8 +718,8 @@
   <dimension ref="A1:AS500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK2" sqref="AK2"/>
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA118" sqref="AA118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +866,7 @@
       <c r="AE2" s="4"/>
       <c r="AG2" s="7">
         <f>COUNTIF(AA:AA,"W")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH2" s="7">
         <f>COUNTIF(AA:AA,"L")</f>
@@ -871,16 +874,16 @@
       </c>
       <c r="AI2" s="8">
         <f>+AG2/SUM(AG2:AH2)</f>
-        <v>0.61538461538461542</v>
+        <v>0.62962962962962965</v>
       </c>
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4">
         <f>SUM(AE:AE)</f>
-        <v>55.678514738333149</v>
+        <v>127.62096078149861</v>
       </c>
       <c r="AQ2">
         <f>COUNTIF(AO:AO,"W")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR2">
         <f>COUNTIF(AO:AO,"L")</f>
@@ -888,7 +891,7 @@
       </c>
       <c r="AS2" s="8">
         <f>+AQ2/SUM(AQ2:AR2)</f>
-        <v>0.46153846153846156</v>
+        <v>0.48148148148148145</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
@@ -11087,601 +11090,813 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>65</v>
+      </c>
+      <c r="B113" t="s">
+        <v>42</v>
+      </c>
+      <c r="C113">
+        <v>-102</v>
+      </c>
+      <c r="D113">
+        <v>-139</v>
+      </c>
       <c r="E113">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="F113" s="1" t="e">
+        <v>-37</v>
+      </c>
+      <c r="F113" s="1">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G113" s="1" t="e">
+        <v>0.36274509803921573</v>
+      </c>
+      <c r="G113" s="1">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H113">
+        <v>36.274509803921575</v>
+      </c>
+      <c r="H113" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>LAD</v>
+      </c>
+      <c r="I113" t="s">
+        <v>43</v>
+      </c>
+      <c r="J113">
+        <v>-118</v>
+      </c>
+      <c r="K113">
+        <v>117</v>
       </c>
       <c r="L113">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="M113" s="1" t="e">
+        <v>235</v>
+      </c>
+      <c r="M113" s="1">
         <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N113" s="1" t="e">
+        <v>-1.9915254237288136</v>
+      </c>
+      <c r="N113" s="1">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O113">
+        <v>-29.66101694915254</v>
+      </c>
+      <c r="O113" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>SD</v>
       </c>
       <c r="R113">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>-102</v>
       </c>
       <c r="S113">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>-139</v>
       </c>
       <c r="T113">
         <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="U113" s="1" t="e">
+        <v>-37</v>
+      </c>
+      <c r="U113" s="1">
         <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V113" s="1" t="e">
+        <v>0.36274509803921573</v>
+      </c>
+      <c r="V113" s="1">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X113" s="1" t="e">
+        <v>36.274509803921575</v>
+      </c>
+      <c r="X113" s="1" t="str">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
+        <v>LAD</v>
       </c>
       <c r="Y113" s="1" t="e">
         <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z113" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z113" t="str">
         <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="114" spans="5:26" x14ac:dyDescent="0.25">
+        <v>LAD</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC113" s="2">
+        <v>-100</v>
+      </c>
+      <c r="AD113" s="3">
+        <f>IF(S113&lt;0,((100/ABS(S113))*-AC113)-AC113,((ABS(S113)/100)*-AC113)-AC113)</f>
+        <v>171.94244604316546</v>
+      </c>
+      <c r="AE113" s="3">
+        <f>SUM(AC113:AD113)</f>
+        <v>71.942446043165461</v>
+      </c>
+      <c r="AN113" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO113" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>65</v>
+      </c>
+      <c r="B114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114">
+        <v>105</v>
+      </c>
+      <c r="D114">
+        <v>115</v>
+      </c>
       <c r="E114">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="F114" s="1" t="e">
+        <v>10</v>
+      </c>
+      <c r="F114" s="1">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G114" s="1" t="e">
+        <v>9.5238095238095344E-2</v>
+      </c>
+      <c r="G114" s="1">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H114">
+        <v>9.5238095238095344</v>
+      </c>
+      <c r="H114" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>MIA</v>
+      </c>
+      <c r="I114" t="s">
+        <v>28</v>
+      </c>
+      <c r="J114">
+        <v>-125</v>
+      </c>
+      <c r="K114">
+        <v>-137</v>
       </c>
       <c r="L114">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="M114" s="1" t="e">
+        <v>-12</v>
+      </c>
+      <c r="M114" s="1">
         <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N114" s="1" t="e">
+        <v>9.6000000000000085E-2</v>
+      </c>
+      <c r="N114" s="1">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O114">
+        <v>9.6000000000000085</v>
+      </c>
+      <c r="O114" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>CIN</v>
       </c>
       <c r="R114">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>-125</v>
       </c>
       <c r="S114">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>-137</v>
       </c>
       <c r="T114">
         <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="U114" s="1" t="e">
+        <v>-12</v>
+      </c>
+      <c r="U114" s="1">
         <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V114" s="1" t="e">
+        <v>9.6000000000000085E-2</v>
+      </c>
+      <c r="V114" s="1">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X114" s="1" t="e">
+        <v>9.6000000000000085</v>
+      </c>
+      <c r="X114" s="1" t="str">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y114" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y114" s="1" t="str">
         <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z114" t="e">
+        <v/>
+      </c>
+      <c r="Z114" t="str">
         <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="115" spans="5:26" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>65</v>
+      </c>
+      <c r="B115" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115">
+        <v>124</v>
+      </c>
+      <c r="D115">
+        <v>143</v>
+      </c>
       <c r="E115">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="F115" s="1" t="e">
+        <v>19</v>
+      </c>
+      <c r="F115" s="1">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G115" s="1" t="e">
+        <v>0.15322580645161299</v>
+      </c>
+      <c r="G115" s="1">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H115">
+        <v>15.322580645161299</v>
+      </c>
+      <c r="H115" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>MIN</v>
+      </c>
+      <c r="I115" t="s">
+        <v>21</v>
+      </c>
+      <c r="J115">
+        <v>-148</v>
+      </c>
+      <c r="K115">
+        <v>-170</v>
       </c>
       <c r="L115">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="M115" s="1" t="e">
+        <v>-22</v>
+      </c>
+      <c r="M115" s="1">
         <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N115" s="1" t="e">
+        <v>0.14864864864864868</v>
+      </c>
+      <c r="N115" s="1">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O115">
+        <v>14.864864864864868</v>
+      </c>
+      <c r="O115" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>DET</v>
       </c>
       <c r="R115">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>-148</v>
       </c>
       <c r="S115">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>-170</v>
       </c>
       <c r="T115">
         <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="U115" s="1" t="e">
+        <v>-22</v>
+      </c>
+      <c r="U115" s="1">
         <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V115" s="1" t="e">
+        <v>0.14864864864864868</v>
+      </c>
+      <c r="V115" s="1">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X115" s="1" t="e">
+        <v>14.864864864864868</v>
+      </c>
+      <c r="X115" s="1" t="str">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y115" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y115" s="1" t="str">
         <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z115" t="e">
+        <v/>
+      </c>
+      <c r="Z115" t="str">
         <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="116" spans="5:26" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>65</v>
+      </c>
+      <c r="B116" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116">
+        <v>-210</v>
+      </c>
+      <c r="D116">
+        <v>-206</v>
+      </c>
       <c r="E116">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="F116" s="1" t="e">
+        <v>4</v>
+      </c>
+      <c r="F116" s="1">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G116" s="1" t="e">
+        <v>-1.9047619047619091E-2</v>
+      </c>
+      <c r="G116" s="1">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H116">
+        <v>1.9047619047619091</v>
+      </c>
+      <c r="H116" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>KC</v>
+      </c>
+      <c r="I116" t="s">
+        <v>27</v>
+      </c>
+      <c r="J116">
+        <v>176</v>
+      </c>
+      <c r="K116">
+        <v>171</v>
       </c>
       <c r="L116">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="M116" s="1" t="e">
+        <v>-5</v>
+      </c>
+      <c r="M116" s="1">
         <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N116" s="1" t="e">
+        <v>-2.8409090909090939E-2</v>
+      </c>
+      <c r="N116" s="1">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O116">
+        <v>2.8409090909090939</v>
+      </c>
+      <c r="O116" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>BOS</v>
       </c>
       <c r="R116">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="S116">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="T116">
         <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="U116" s="1" t="e">
+        <v>-5</v>
+      </c>
+      <c r="U116" s="1">
         <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V116" s="1" t="e">
+        <v>-2.8409090909090939E-2</v>
+      </c>
+      <c r="V116" s="1">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X116" s="1" t="e">
+        <v>2.8409090909090939</v>
+      </c>
+      <c r="X116" s="1" t="str">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y116" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y116" s="1" t="str">
         <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z116" t="e">
+        <v/>
+      </c>
+      <c r="Z116" t="str">
         <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="117" spans="5:26" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>65</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117">
+        <v>-108</v>
+      </c>
+      <c r="D117">
+        <v>106</v>
+      </c>
       <c r="E117">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="F117" s="1" t="e">
+        <v>214</v>
+      </c>
+      <c r="F117" s="1">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G117" s="1" t="e">
+        <v>-1.9814814814814814</v>
+      </c>
+      <c r="G117" s="1">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H117">
+        <v>-12.962962962962962</v>
+      </c>
+      <c r="H117" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>TOR</v>
+      </c>
+      <c r="I117" t="s">
+        <v>23</v>
+      </c>
+      <c r="J117">
+        <v>-112</v>
+      </c>
+      <c r="K117">
+        <v>-126</v>
       </c>
       <c r="L117">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="M117" s="1" t="e">
+        <v>-14</v>
+      </c>
+      <c r="M117" s="1">
         <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N117" s="1" t="e">
+        <v>0.125</v>
+      </c>
+      <c r="N117" s="1">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O117">
+        <v>12.5</v>
+      </c>
+      <c r="O117" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>CLE</v>
       </c>
       <c r="R117">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>-112</v>
       </c>
       <c r="S117">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>-126</v>
       </c>
       <c r="T117">
         <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="U117" s="1" t="e">
+        <v>-14</v>
+      </c>
+      <c r="U117" s="1">
         <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V117" s="1" t="e">
+        <v>0.125</v>
+      </c>
+      <c r="V117" s="1">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X117" s="1" t="e">
+        <v>12.5</v>
+      </c>
+      <c r="X117" s="1" t="str">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y117" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y117" s="1" t="str">
         <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z117" t="e">
+        <v/>
+      </c>
+      <c r="Z117" t="str">
         <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="118" spans="5:26" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>65</v>
+      </c>
+      <c r="B118" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118">
+        <v>110</v>
+      </c>
+      <c r="D118">
+        <v>141</v>
+      </c>
       <c r="E118">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="F118" s="1" t="e">
+        <v>31</v>
+      </c>
+      <c r="F118" s="1">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G118" s="1" t="e">
+        <v>0.28181818181818175</v>
+      </c>
+      <c r="G118" s="1">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H118">
+        <v>28.181818181818173</v>
+      </c>
+      <c r="H118" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>NYY</v>
+      </c>
+      <c r="I118" t="s">
+        <v>37</v>
+      </c>
+      <c r="J118">
+        <v>-130</v>
+      </c>
+      <c r="K118">
+        <v>-168</v>
       </c>
       <c r="L118">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="M118" s="1" t="e">
+        <v>-38</v>
+      </c>
+      <c r="M118" s="1">
         <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N118" s="1" t="e">
+        <v>0.29230769230769238</v>
+      </c>
+      <c r="N118" s="1">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O118">
+        <v>29.230769230769237</v>
+      </c>
+      <c r="O118" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>CHW</v>
       </c>
       <c r="R118">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="S118">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>-168</v>
       </c>
       <c r="T118">
         <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="U118" s="1" t="e">
+        <v>-38</v>
+      </c>
+      <c r="U118" s="1">
         <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V118" s="1" t="e">
+        <v>0.29230769230769238</v>
+      </c>
+      <c r="V118" s="1">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
+        <v>29.230769230769237</v>
       </c>
       <c r="X118" s="1" t="e">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y118" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y118" s="1" t="str">
         <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z118" t="e">
+        <v>CHW</v>
+      </c>
+      <c r="Z118" t="str">
         <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="119" spans="5:26" x14ac:dyDescent="0.25">
+        <v>CHW</v>
+      </c>
+      <c r="AN118" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>65</v>
+      </c>
+      <c r="B119" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119">
+        <v>-265</v>
+      </c>
+      <c r="D119">
+        <v>-250</v>
+      </c>
       <c r="E119">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="F119" s="1" t="e">
+        <v>15</v>
+      </c>
+      <c r="F119" s="1">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G119" s="1" t="e">
+        <v>-5.6603773584905648E-2</v>
+      </c>
+      <c r="G119" s="1">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H119">
+        <v>5.6603773584905648</v>
+      </c>
+      <c r="H119" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>COL</v>
+      </c>
+      <c r="I119" t="s">
+        <v>18</v>
+      </c>
+      <c r="J119">
+        <v>215</v>
+      </c>
+      <c r="K119">
+        <v>204</v>
       </c>
       <c r="L119">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="M119" s="1" t="e">
+        <v>-11</v>
+      </c>
+      <c r="M119" s="1">
         <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N119" s="1" t="e">
+        <v>-5.1162790697674376E-2</v>
+      </c>
+      <c r="N119" s="1">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O119">
+        <v>5.1162790697674376</v>
+      </c>
+      <c r="O119" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>MIL</v>
       </c>
       <c r="R119">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="S119">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="T119">
         <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="U119" s="1" t="e">
+        <v>-11</v>
+      </c>
+      <c r="U119" s="1">
         <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V119" s="1" t="e">
+        <v>-5.1162790697674376E-2</v>
+      </c>
+      <c r="V119" s="1">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X119" s="1" t="e">
+        <v>5.1162790697674376</v>
+      </c>
+      <c r="X119" s="1" t="str">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y119" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y119" s="1" t="str">
         <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z119" t="e">
+        <v/>
+      </c>
+      <c r="Z119" t="str">
         <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="120" spans="5:26" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>65</v>
+      </c>
+      <c r="B120" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120">
+        <v>100</v>
+      </c>
+      <c r="D120">
+        <v>-101</v>
+      </c>
       <c r="E120">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="F120" s="1" t="e">
+        <v>-201</v>
+      </c>
+      <c r="F120" s="1">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G120" s="1" t="e">
+        <v>-2.0099999999999998</v>
+      </c>
+      <c r="G120" s="1">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="H120" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>SF</v>
+      </c>
+      <c r="I120" t="s">
+        <v>7</v>
+      </c>
+      <c r="J120">
+        <v>-120</v>
+      </c>
+      <c r="K120">
+        <v>-119</v>
       </c>
       <c r="L120">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="M120" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="M120" s="1">
         <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N120" s="1" t="e">
+        <v>-8.3333333333333037E-3</v>
+      </c>
+      <c r="N120" s="1">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O120">
+        <v>0.83333333333333037</v>
+      </c>
+      <c r="O120" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>LAA</v>
       </c>
       <c r="R120">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S120">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>-101</v>
       </c>
       <c r="T120">
         <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="U120" s="1" t="e">
+        <v>-201</v>
+      </c>
+      <c r="U120" s="1">
         <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V120" s="1" t="e">
+        <v>-2.0099999999999998</v>
+      </c>
+      <c r="V120" s="1">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X120" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="X120" s="1" t="str">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y120" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y120" s="1" t="str">
         <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z120" t="e">
+        <v/>
+      </c>
+      <c r="Z120" t="str">
         <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="121" spans="5:26" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>65</v>
+      </c>
+      <c r="B121" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121">
+        <v>164</v>
+      </c>
+      <c r="D121">
+        <v>189</v>
+      </c>
       <c r="E121">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="F121" s="1" t="e">
+        <v>25</v>
+      </c>
+      <c r="F121" s="1">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G121" s="1" t="e">
+        <v>0.15243902439024382</v>
+      </c>
+      <c r="G121" s="1">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H121">
+        <v>15.243902439024382</v>
+      </c>
+      <c r="H121" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>TEX</v>
+      </c>
+      <c r="I121" t="s">
+        <v>26</v>
+      </c>
+      <c r="J121">
+        <v>-198</v>
+      </c>
+      <c r="K121">
+        <v>-233</v>
       </c>
       <c r="L121">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="M121" s="1" t="e">
+        <v>-35</v>
+      </c>
+      <c r="M121" s="1">
         <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N121" s="1" t="e">
+        <v>0.17676767676767668</v>
+      </c>
+      <c r="N121" s="1">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O121">
+        <v>17.676767676767668</v>
+      </c>
+      <c r="O121" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>OAK</v>
       </c>
       <c r="R121">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>-198</v>
       </c>
       <c r="S121">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>-233</v>
       </c>
       <c r="T121">
         <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="U121" s="1" t="e">
+        <v>-35</v>
+      </c>
+      <c r="U121" s="1">
         <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V121" s="1" t="e">
+        <v>0.17676767676767668</v>
+      </c>
+      <c r="V121" s="1">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X121" s="1" t="e">
+        <v>17.676767676767668</v>
+      </c>
+      <c r="X121" s="1" t="str">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y121" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y121" s="1" t="str">
         <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z121" t="e">
+        <v/>
+      </c>
+      <c r="Z121" t="str">
         <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="122" spans="5:26" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E122">
         <f t="shared" si="54"/>
         <v>0</v>
@@ -11747,7 +11962,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="123" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E123">
         <f t="shared" si="54"/>
         <v>0</v>
@@ -11813,7 +12028,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="124" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E124">
         <f t="shared" si="54"/>
         <v>0</v>
@@ -11879,7 +12094,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="125" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E125">
         <f t="shared" si="54"/>
         <v>0</v>
@@ -11945,7 +12160,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="126" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E126">
         <f t="shared" si="54"/>
         <v>0</v>
@@ -12011,7 +12226,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="127" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E127">
         <f t="shared" si="54"/>
         <v>0</v>
@@ -12077,7 +12292,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="128" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E128">
         <f t="shared" si="54"/>
         <v>0</v>

--- a/Final/Results Tracker.xlsx
+++ b/Final/Results Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\DataClass\Final-Project\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD2D2D2-828A-4938-82F2-5A866DF69AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D578BFE-C896-42C6-B466-8AEBC23706EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="-18270" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="1" xr2:uid="{6E3B00A5-36E2-41A8-9CB6-9F2B4B5BC870}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{6E3B00A5-36E2-41A8-9CB6-9F2B4B5BC870}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="66">
   <si>
     <t>C</t>
   </si>
@@ -718,8 +718,8 @@
   <dimension ref="A1:AS500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA118" sqref="AA118"/>
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +866,7 @@
       <c r="AE2" s="4"/>
       <c r="AG2" s="7">
         <f>COUNTIF(AA:AA,"W")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH2" s="7">
         <f>COUNTIF(AA:AA,"L")</f>
@@ -874,12 +874,12 @@
       </c>
       <c r="AI2" s="8">
         <f>+AG2/SUM(AG2:AH2)</f>
-        <v>0.62962962962962965</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4">
         <f>SUM(AE:AE)</f>
-        <v>127.62096078149861</v>
+        <v>187.14477030530813</v>
       </c>
       <c r="AQ2">
         <f>COUNTIF(AO:AO,"W")</f>
@@ -887,11 +887,11 @@
       </c>
       <c r="AR2">
         <f>COUNTIF(AO:AO,"L")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS2" s="8">
         <f>+AQ2/SUM(AQ2:AR2)</f>
-        <v>0.48148148148148145</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
@@ -11631,8 +11631,25 @@
         <f t="shared" si="67"/>
         <v>CHW</v>
       </c>
+      <c r="AA118" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC118" s="2">
+        <v>-100</v>
+      </c>
+      <c r="AD118" s="3">
+        <f>IF(S118&lt;0,((100/ABS(S118))*-AC118)-AC118,((ABS(S118)/100)*-AC118)-AC118)</f>
+        <v>159.52380952380952</v>
+      </c>
+      <c r="AE118" s="3">
+        <f>SUM(AC118:AD118)</f>
+        <v>59.523809523809518</v>
+      </c>
       <c r="AN118" t="s">
         <v>31</v>
+      </c>
+      <c r="AO118" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:41" x14ac:dyDescent="0.25">
